--- a/Dados/25-jun.xlsx
+++ b/Dados/25-jun.xlsx
@@ -4728,7 +4728,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>moji mirim</t>
+          <t>mogi mirim</t>
         </is>
       </c>
       <c r="B336" t="n">
